--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/42/word_level_error_type_summary_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/42/word_level_error_type_summary_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>error_type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
@@ -447,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -457,26 +462,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_B</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>1</v>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/42/word_level_error_type_summary_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/42/word_level_error_type_summary_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>error_type</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
@@ -452,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -462,36 +457,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B5" t="n">
         <v>1</v>
       </c>
     </row>
